--- a/FundingForecastModel/QuarterlyForecasts/FI_Level/LVTS/Value/2022-01-14/ARIMA/ROYCCATxnValueForecastErrors.xlsx
+++ b/FundingForecastModel/QuarterlyForecasts/FI_Level/LVTS/Value/2022-01-14/ARIMA/ROYCCATxnValueForecastErrors.xlsx
@@ -12,10 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="171">
-  <si>
-    <t>FinancialInstitution</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="169">
   <si>
     <t>x</t>
   </si>
@@ -272,259 +269,256 @@
     <t>84</t>
   </si>
   <si>
-    <t>ROYCCA</t>
-  </si>
-  <si>
-    <t>59.2105715179854</t>
-  </si>
-  <si>
-    <t>-18.3395116972479</t>
-  </si>
-  <si>
-    <t>-21.5506326226646</t>
-  </si>
-  <si>
-    <t>18.1916610405875</t>
-  </si>
-  <si>
-    <t>12.778589406654</t>
-  </si>
-  <si>
-    <t>8.19444843026372</t>
-  </si>
-  <si>
-    <t>-8.63075788653009</t>
-  </si>
-  <si>
-    <t>-19.3736629483268</t>
-  </si>
-  <si>
-    <t>-16.4446908152181</t>
-  </si>
-  <si>
-    <t>-46.571489127936</t>
-  </si>
-  <si>
-    <t>-30.7346545420304</t>
-  </si>
-  <si>
-    <t>-20.8032697151106</t>
-  </si>
-  <si>
-    <t>5.29558609324988</t>
-  </si>
-  <si>
-    <t>-35.1517758467504</t>
-  </si>
-  <si>
-    <t>-5.43631800526003</t>
-  </si>
-  <si>
-    <t>-4.18689286538898</t>
-  </si>
-  <si>
-    <t>1.09853471929233</t>
-  </si>
-  <si>
-    <t>-15.8789410779941</t>
-  </si>
-  <si>
-    <t>-5.38276573448434</t>
-  </si>
-  <si>
-    <t>3.12026426941839</t>
-  </si>
-  <si>
-    <t>22.171430777199</t>
-  </si>
-  <si>
-    <t>-11.475549742433</t>
-  </si>
-  <si>
-    <t>-10.4656040980756</t>
-  </si>
-  <si>
-    <t>-3.07826055032194</t>
-  </si>
-  <si>
-    <t>31.198280175385</t>
-  </si>
-  <si>
-    <t>-4.0331449620968</t>
-  </si>
-  <si>
-    <t>-7.36691242538996</t>
-  </si>
-  <si>
-    <t>-4.39756129597947</t>
-  </si>
-  <si>
-    <t>10.0344556935794</t>
-  </si>
-  <si>
-    <t>-2.32242318378553</t>
-  </si>
-  <si>
-    <t>3.8815942232161</t>
-  </si>
-  <si>
-    <t>-23.2316556749664</t>
-  </si>
-  <si>
-    <t>-30.9266751615959</t>
-  </si>
-  <si>
-    <t>-22.3840154737239</t>
-  </si>
-  <si>
-    <t>4.15582146596819</t>
-  </si>
-  <si>
-    <t>-10.0486969982588</t>
-  </si>
-  <si>
-    <t>12.4664027637683</t>
-  </si>
-  <si>
-    <t>-13.8051980926817</t>
-  </si>
-  <si>
-    <t>-16.5139196836161</t>
-  </si>
-  <si>
-    <t>21.4545676482009</t>
-  </si>
-  <si>
-    <t>18.0955185322339</t>
-  </si>
-  <si>
-    <t>-5.08245279790788</t>
-  </si>
-  <si>
-    <t>19.4973665605438</t>
-  </si>
-  <si>
-    <t>-11.8406418284128</t>
-  </si>
-  <si>
-    <t>-3.69800225453378</t>
-  </si>
-  <si>
-    <t>10.621811253209</t>
-  </si>
-  <si>
-    <t>-14.2812393839641</t>
-  </si>
-  <si>
-    <t>1.25737567185945</t>
-  </si>
-  <si>
-    <t>-17.6620617754911</t>
-  </si>
-  <si>
-    <t>18.8297290877224</t>
-  </si>
-  <si>
-    <t>-6.56601660414799</t>
-  </si>
-  <si>
-    <t>-3.3680655204181</t>
-  </si>
-  <si>
-    <t>-10.6414580947124</t>
-  </si>
-  <si>
-    <t>3.32023927473256</t>
-  </si>
-  <si>
-    <t>9.30758935536915</t>
-  </si>
-  <si>
-    <t>-5.67785834293124</t>
-  </si>
-  <si>
-    <t>-26.7624099137666</t>
-  </si>
-  <si>
-    <t>1.8344496523589</t>
-  </si>
-  <si>
-    <t>13.5175737348219</t>
-  </si>
-  <si>
-    <t>-5.16942265254272</t>
-  </si>
-  <si>
-    <t>-31.4897368003146</t>
-  </si>
-  <si>
-    <t>11.0690409078735</t>
-  </si>
-  <si>
-    <t>10.0899330839484</t>
-  </si>
-  <si>
-    <t>-12.6819984243197</t>
-  </si>
-  <si>
-    <t>12.994416160554</t>
-  </si>
-  <si>
-    <t>10.9759098571145</t>
-  </si>
-  <si>
-    <t>-1.67501915413118</t>
-  </si>
-  <si>
-    <t>-24.1022687931027</t>
-  </si>
-  <si>
-    <t>-17.6500515665051</t>
-  </si>
-  <si>
-    <t>20.3631346888101</t>
-  </si>
-  <si>
-    <t>-9.37560093892682</t>
-  </si>
-  <si>
-    <t>11.0535548652063</t>
-  </si>
-  <si>
-    <t>-44.6507945666972</t>
-  </si>
-  <si>
-    <t>22.1037981161845</t>
-  </si>
-  <si>
-    <t>13.4631639157077</t>
-  </si>
-  <si>
-    <t>-2.05557902022144</t>
-  </si>
-  <si>
-    <t>-24.9396617191345</t>
-  </si>
-  <si>
-    <t>-129.923006853098</t>
-  </si>
-  <si>
-    <t>80.6836544620892</t>
-  </si>
-  <si>
-    <t>58.3365413023142</t>
-  </si>
-  <si>
-    <t>-10.1694579974844</t>
-  </si>
-  <si>
-    <t>60.7382795118739</t>
-  </si>
-  <si>
-    <t>0.688845315326375</t>
-  </si>
-  <si>
-    <t>59.0940046653695</t>
+    <t>3.65259057292587</t>
+  </si>
+  <si>
+    <t>535.285721533645</t>
+  </si>
+  <si>
+    <t>-375.656214694772</t>
+  </si>
+  <si>
+    <t>-139.251079854886</t>
+  </si>
+  <si>
+    <t>-123.018242938106</t>
+  </si>
+  <si>
+    <t>149.829051174238</t>
+  </si>
+  <si>
+    <t>465.796136719007</t>
+  </si>
+  <si>
+    <t>-468.719560637245</t>
+  </si>
+  <si>
+    <t>195.444305944571</t>
+  </si>
+  <si>
+    <t>17.8331829266917</t>
+  </si>
+  <si>
+    <t>-111.882998960412</t>
+  </si>
+  <si>
+    <t>-162.091658142699</t>
+  </si>
+  <si>
+    <t>-33.979896359856</t>
+  </si>
+  <si>
+    <t>11.1832800806924</t>
+  </si>
+  <si>
+    <t>-82.2744371548952</t>
+  </si>
+  <si>
+    <t>120.30331421656</t>
+  </si>
+  <si>
+    <t>-128.965188328229</t>
+  </si>
+  <si>
+    <t>-18.0647997336491</t>
+  </si>
+  <si>
+    <t>229.882075457268</t>
+  </si>
+  <si>
+    <t>84.1641587868335</t>
+  </si>
+  <si>
+    <t>402.817131423615</t>
+  </si>
+  <si>
+    <t>-334.655601818192</t>
+  </si>
+  <si>
+    <t>473.172977113242</t>
+  </si>
+  <si>
+    <t>-326.442637207264</t>
+  </si>
+  <si>
+    <t>202.370422948635</t>
+  </si>
+  <si>
+    <t>-165.847714310809</t>
+  </si>
+  <si>
+    <t>756.019438922089</t>
+  </si>
+  <si>
+    <t>-223.66973712056</t>
+  </si>
+  <si>
+    <t>-729.457290062993</t>
+  </si>
+  <si>
+    <t>211.636424429714</t>
+  </si>
+  <si>
+    <t>-185.790317061215</t>
+  </si>
+  <si>
+    <t>61.1708907220846</t>
+  </si>
+  <si>
+    <t>-1089.32923763191</t>
+  </si>
+  <si>
+    <t>-294.641210389819</t>
+  </si>
+  <si>
+    <t>-182.44633937225</t>
+  </si>
+  <si>
+    <t>50.434583775088</t>
+  </si>
+  <si>
+    <t>-392.715942785849</t>
+  </si>
+  <si>
+    <t>561.405806285194</t>
+  </si>
+  <si>
+    <t>-92.1340953309127</t>
+  </si>
+  <si>
+    <t>-31.6397155262248</t>
+  </si>
+  <si>
+    <t>-16.0366662621254</t>
+  </si>
+  <si>
+    <t>-138.411684969151</t>
+  </si>
+  <si>
+    <t>56.9484194726865</t>
+  </si>
+  <si>
+    <t>-373.493394384867</t>
+  </si>
+  <si>
+    <t>-119.732342371806</t>
+  </si>
+  <si>
+    <t>-73.1631982710105</t>
+  </si>
+  <si>
+    <t>-185.796292579573</t>
+  </si>
+  <si>
+    <t>253.12725625731</t>
+  </si>
+  <si>
+    <t>-369.246601250621</t>
+  </si>
+  <si>
+    <t>-118.611791886405</t>
+  </si>
+  <si>
+    <t>-288.646311878172</t>
+  </si>
+  <si>
+    <t>36.9656819753081</t>
+  </si>
+  <si>
+    <t>49.151234273304</t>
+  </si>
+  <si>
+    <t>-297.158969766921</t>
+  </si>
+  <si>
+    <t>-55.7227329752186</t>
+  </si>
+  <si>
+    <t>102.682690445998</t>
+  </si>
+  <si>
+    <t>336.958304236046</t>
+  </si>
+  <si>
+    <t>-311.682426809378</t>
+  </si>
+  <si>
+    <t>585.55296472499</t>
+  </si>
+  <si>
+    <t>-350.601394483743</t>
+  </si>
+  <si>
+    <t>-68.165522326568</t>
+  </si>
+  <si>
+    <t>-115.204202698794</t>
+  </si>
+  <si>
+    <t>-36.210791605974</t>
+  </si>
+  <si>
+    <t>-196.3052298922</t>
+  </si>
+  <si>
+    <t>-97.4120588626984</t>
+  </si>
+  <si>
+    <t>149.180511528487</t>
+  </si>
+  <si>
+    <t>-367.104641079387</t>
+  </si>
+  <si>
+    <t>-208.010224746773</t>
+  </si>
+  <si>
+    <t>211.956262945328</t>
+  </si>
+  <si>
+    <t>107.415686729097</t>
+  </si>
+  <si>
+    <t>16.228436569686</t>
+  </si>
+  <si>
+    <t>34.3015136855693</t>
+  </si>
+  <si>
+    <t>-273.350479718848</t>
+  </si>
+  <si>
+    <t>202.112788413118</t>
+  </si>
+  <si>
+    <t>58.8591138218244</t>
+  </si>
+  <si>
+    <t>-9.3478025119739</t>
+  </si>
+  <si>
+    <t>883.801749496124</t>
+  </si>
+  <si>
+    <t>2238.96849797636</t>
+  </si>
+  <si>
+    <t>602.877789026352</t>
+  </si>
+  <si>
+    <t>114.500032777045</t>
+  </si>
+  <si>
+    <t>1478.50223448825</t>
+  </si>
+  <si>
+    <t>-2219.33307949084</t>
+  </si>
+  <si>
+    <t>-567.633162700584</t>
+  </si>
+  <si>
+    <t>345.312691207533</t>
   </si>
 </sst>
 </file>
@@ -580,932 +574,677 @@
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>86</v>
       </c>
-      <c r="C3" t="s">
-        <v>88</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>86</v>
-      </c>
-      <c r="C6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>86</v>
-      </c>
-      <c r="C9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>86</v>
-      </c>
-      <c r="C10" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C11" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>86</v>
-      </c>
-      <c r="C12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>86</v>
-      </c>
-      <c r="C13" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>86</v>
-      </c>
-      <c r="C14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>86</v>
-      </c>
-      <c r="C15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>86</v>
-      </c>
-      <c r="C16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>86</v>
-      </c>
-      <c r="C17" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>86</v>
-      </c>
-      <c r="C18" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>86</v>
-      </c>
-      <c r="C19" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>86</v>
-      </c>
-      <c r="C20" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>86</v>
-      </c>
-      <c r="C21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>86</v>
-      </c>
-      <c r="C22" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>86</v>
-      </c>
-      <c r="C23" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>86</v>
-      </c>
-      <c r="C24" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>86</v>
-      </c>
-      <c r="C25" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>86</v>
-      </c>
-      <c r="C26" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>86</v>
-      </c>
-      <c r="C27" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>86</v>
-      </c>
-      <c r="C28" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>86</v>
-      </c>
-      <c r="C29" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>86</v>
-      </c>
-      <c r="C30" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>86</v>
-      </c>
-      <c r="C31" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>86</v>
-      </c>
-      <c r="C32" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>86</v>
-      </c>
-      <c r="C33" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>86</v>
-      </c>
-      <c r="C34" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>86</v>
-      </c>
-      <c r="C35" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>86</v>
-      </c>
-      <c r="C36" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>86</v>
-      </c>
-      <c r="C37" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>86</v>
-      </c>
-      <c r="C38" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>86</v>
-      </c>
-      <c r="C39" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>86</v>
-      </c>
-      <c r="C40" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>86</v>
-      </c>
-      <c r="C41" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>86</v>
-      </c>
-      <c r="C42" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>86</v>
-      </c>
-      <c r="C43" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>86</v>
-      </c>
-      <c r="C44" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>86</v>
-      </c>
-      <c r="C45" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>86</v>
-      </c>
-      <c r="C46" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>86</v>
-      </c>
-      <c r="C47" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>86</v>
-      </c>
-      <c r="C48" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>86</v>
-      </c>
-      <c r="C49" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>86</v>
-      </c>
-      <c r="C50" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>86</v>
-      </c>
-      <c r="C51" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>86</v>
-      </c>
-      <c r="C52" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>86</v>
-      </c>
-      <c r="C53" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>86</v>
-      </c>
-      <c r="C54" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>86</v>
-      </c>
-      <c r="C55" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>86</v>
-      </c>
-      <c r="C56" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>86</v>
-      </c>
-      <c r="C57" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>86</v>
-      </c>
-      <c r="C58" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>86</v>
-      </c>
-      <c r="C59" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>86</v>
-      </c>
-      <c r="C60" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>86</v>
-      </c>
-      <c r="C61" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>86</v>
-      </c>
-      <c r="C62" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>86</v>
-      </c>
-      <c r="C63" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>86</v>
-      </c>
-      <c r="C64" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>86</v>
-      </c>
-      <c r="C65" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>86</v>
-      </c>
-      <c r="C66" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>86</v>
-      </c>
-      <c r="C67" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>86</v>
-      </c>
-      <c r="C68" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>86</v>
-      </c>
-      <c r="C69" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>86</v>
-      </c>
-      <c r="C70" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>86</v>
-      </c>
-      <c r="C71" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>86</v>
-      </c>
-      <c r="C72" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>86</v>
-      </c>
-      <c r="C73" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>86</v>
-      </c>
-      <c r="C74" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>86</v>
-      </c>
-      <c r="C75" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>86</v>
-      </c>
-      <c r="C76" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>86</v>
-      </c>
-      <c r="C77" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>86</v>
-      </c>
-      <c r="C78" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>86</v>
-      </c>
-      <c r="C79" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>86</v>
-      </c>
-      <c r="C80" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>86</v>
-      </c>
-      <c r="C81" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>86</v>
-      </c>
-      <c r="C82" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>86</v>
-      </c>
-      <c r="C83" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>86</v>
-      </c>
-      <c r="C84" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>86</v>
-      </c>
-      <c r="C85" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
